--- a/partsList.xlsx
+++ b/partsList.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lovro\Desktop\NearlyEmpty\FOG-Assignment-C1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="17535" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flat Roof" sheetId="1" r:id="rId1"/>
     <sheet name="Pointi Roof" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -214,12 +219,6 @@
     <t>I: if 240&gt;=LS&gt;=150: 1 x 480 / if 300&gt;=LS&gt;240: 1 x 600 / if 480&gt;= LS &gt; 300 : 2 x 480 / if 600 &gt;= LS &gt; 480: 2 X 600 / if LS &gt; 600 : 4 x 480 (extra stolpe aLCeady counted in G)</t>
   </si>
   <si>
-    <t>B: if 240= LC  : 1 x 480/ if 270&gt;= LC &gt; 240: 1 x 540/ if 300&gt;=LC&gt;270: 1 x 600/ if 480&gt;=LC &gt;300: 480: 2 x 480 /  if 540 &gt;= LC &gt; 480: 2 x 540 /  if 600 &gt;= LC &gt; 540: 2 x 600 / if LC&gt;= 600: 4 x 480</t>
-  </si>
-  <si>
-    <t>C: if 240&gt;=LS &gt;=150 : 1 x 480 / if 270 &gt;= LS &gt; 240 : 1 x 540 / if 300 &gt;= LS &gt; 270 : 1 x 600 / if 480 &gt;= LS &gt; 300 : 2 x 480 / if 540 &gt;= LS &gt; 480 : 2 x 540 / if 600 &gt;= LS &gt; 540 : 2 x 6000 / if LS &gt;= 600 : 4 x 480 ( I guess need 2 extra stolpe to support these beams)</t>
-  </si>
-  <si>
     <t>F: flatroof H --&gt;if 240=LC: 1 x 480/ if 300&gt;=LC&gt;240: 1 x 600/ if  480&gt;=LC&gt;300: 2 x 480: if 600&gt;=LC&gt;480 : 2 x 600 / if LC &gt; 600: 4 x 480</t>
   </si>
   <si>
@@ -236,6 +235,12 @@
   </si>
   <si>
     <t>P: if 420&gt;= L &gt;=150: 1 x 420 / if 540&gt;= L &gt; 420: 1 x 540 / if 840&gt;= L&gt;540 : 2 x 420 / if 1080&gt;=L&gt;840: 2 x 540/ if 1260&gt;= L &gt; 1080 : 3 x 420/ if L&gt;1260: 3 x 540</t>
+  </si>
+  <si>
+    <t>B: if 240= LC  : 1 x 480/ if 270&gt;= LC &gt; 240: 1 x 540/ if 300&gt;=LC&gt;270: 1 x 600/ if 480&gt;=LC &gt;300: 2 x 480 /  if 540 &gt;= LC &gt; 480: 2 x 540 /  if 600 &gt;= LC &gt; 540: 2 x 600 / if LC&gt;= 600: 4 x 480</t>
+  </si>
+  <si>
+    <t>C: if 240&gt;=LS &gt;150 : 1 x 480 / if 270 &gt;= LS &gt; 240 : 1 x 540 / if 300 &gt;= LS &gt; 270 : 1 x 600 / if 480 &gt;= LS &gt; 300 : 2 x 480 / if 540 &gt;= LS &gt; 480 : 2 x 540 / if 600 &gt;= LS &gt; 540 : 2 x 600 / if LS &gt;= 600 : 4 x 480 ( I guess need 2 extra stolpe to support these beams)</t>
   </si>
 </sst>
 </file>
@@ -275,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,14 +361,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -397,30 +405,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="29">
-    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -437,8 +451,44 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -766,35 +816,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.875" customWidth="1"/>
     <col min="7" max="7" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -805,186 +855,186 @@
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="30">
-      <c r="A5" s="16" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="16" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="16" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" ht="105">
-      <c r="A8" s="16" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="16" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>300</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="90">
-      <c r="A10" s="16" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="16" t="s">
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="8">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7">
         <v>600</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="16" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="8">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7">
         <v>360</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="E12" s="7"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
@@ -992,7 +1042,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1000,7 +1050,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1008,7 +1058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1016,7 +1066,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1024,12 +1074,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1053,209 +1103,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="6" width="40.33203125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="40.33203125" customWidth="1"/>
+    <col min="4" max="6" width="40.375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="90">
-      <c r="A3" s="12" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="E3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="H3">
         <f>540/2</f>
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="11" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>300</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="60">
-      <c r="A6" s="11" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="75">
-      <c r="A7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14">
+        <v>540</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="105">
-      <c r="A8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="60">
-      <c r="A9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15">
-        <v>540</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="60">
-      <c r="A10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="19"/>
       <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1263,7 +1313,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1271,7 +1321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1279,7 +1329,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1287,7 +1337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1295,12 +1345,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
